--- a/iTreeWeb/iTreeweb组相关文档/任务文档/iTreezp/iTree子任务发布表-2015.11.02-iTreezp.xlsx
+++ b/iTreeWeb/iTreeweb组相关文档/任务文档/iTreezp/iTree子任务发布表-2015.11.02-iTreezp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
   <si>
     <t>队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,62 @@
   <si>
     <t>赵鹏</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新闻编辑功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够对列表中的数据进行编辑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在问题，编辑的过程中会产生新的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对新闻编辑功能进行完善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不改变id的情况下进行编辑并保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与大二新成员进行交流。完善前台jsp代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成在进行删除操作后列表排版混乱的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务发布表2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子任务发布表3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决修改标识只能修改一次的问题（必须刷新后才能修改第二次）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -346,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -372,15 +428,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -390,9 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,11 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,14 +789,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -749,11 +808,11 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -765,11 +824,11 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -801,17 +860,17 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="277.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="11"/>
@@ -823,19 +882,19 @@
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="353.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="11"/>
@@ -847,138 +906,445 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="14" spans="1:6" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="14" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="21">
-        <v>42312</v>
+      <c r="B15" s="10">
+        <v>42310</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" s="20" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="9" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="10"/>
+      <c r="B17" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" s="20" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="9" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:6" s="20" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="9" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:6" s="20" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:6" s="20" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="10">
+        <v>42311</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10">
+        <v>42312</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+    </row>
+    <row r="39" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="10">
+        <v>42313</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
+  <mergeCells count="43">
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D5:F5"/>
@@ -990,6 +1356,14 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1008,14 +1382,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -1027,11 +1401,11 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -1043,11 +1417,11 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -1079,17 +1453,17 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="11"/>
@@ -1101,19 +1475,19 @@
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="11"/>
@@ -1122,12 +1496,12 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1156,14 +1530,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1173,9 +1547,9 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1185,9 +1559,9 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1211,57 +1585,57 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1271,87 +1645,87 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1361,78 +1735,81 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
@@ -1443,15 +1820,12 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/iTreeWeb/iTreeweb组相关文档/任务文档/iTreezp/iTree子任务发布表-2015.11.02-iTreezp.xlsx
+++ b/iTreeWeb/iTreeweb组相关文档/任务文档/iTreezp/iTree子任务发布表-2015.11.02-iTreezp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="60">
   <si>
     <t>队长</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +275,22 @@
   </si>
   <si>
     <t xml:space="preserve">  完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成批量删除的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js代码问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iTree例会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +449,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -456,6 +475,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,9 +485,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -789,14 +808,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -808,11 +827,11 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -824,11 +843,11 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -860,97 +879,97 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="277.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="271.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="353.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
@@ -962,91 +981,91 @@
       <c r="C15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" s="9" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" s="9" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" s="9" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
@@ -1058,91 +1077,91 @@
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
@@ -1154,87 +1173,87 @@
       <c r="C33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
@@ -1246,105 +1265,389 @@
       <c r="C42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="10">
+        <v>42314</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B60" s="10">
+        <v>42315</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" s="10">
+        <v>42316</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
+  <mergeCells count="67">
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D5:F5"/>
@@ -1356,14 +1659,30 @@
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1382,14 +1701,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -1401,11 +1720,11 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -1417,11 +1736,11 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
@@ -1453,55 +1772,55 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="219.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1530,14 +1849,14 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -1547,9 +1866,9 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1559,9 +1878,9 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1585,57 +1904,57 @@
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1645,87 +1964,87 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
@@ -1735,81 +2054,78 @@
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
@@ -1820,12 +2136,15 @@
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
